--- a/dataformats_14030220.xlsx
+++ b/dataformats_14030220.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\nad\Radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53C99D7E-4CE5-44E9-9E63-FC546805CAA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="from UI" sheetId="1" r:id="rId1"/>
@@ -437,7 +438,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -772,11 +773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="B2:F40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -2958,7 +2959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2972,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/dataformats_14030220.xlsx
+++ b/dataformats_14030220.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\nad\Radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53C99D7E-4CE5-44E9-9E63-FC546805CAA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8DD8FE78-95E5-4188-B3F0-7B73B97F9D2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="uplink" sheetId="3" r:id="rId3"/>
     <sheet name="downlink" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="134">
   <si>
     <t>no.</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>reserve</t>
-  </si>
-  <si>
-    <t>10 bytes</t>
   </si>
   <si>
     <t>2 byte counter</t>
@@ -776,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,8 +810,8 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
+      <c r="D3" s="3">
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -828,16 +825,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -845,16 +842,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -862,16 +859,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -879,16 +876,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -896,16 +893,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -913,16 +910,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -930,16 +927,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -947,16 +944,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -964,16 +961,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -981,16 +978,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -998,16 +995,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1015,16 +1012,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -1032,16 +1029,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1049,16 +1046,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1066,16 +1063,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1083,16 +1080,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1100,16 +1097,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1117,16 +1114,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1134,16 +1131,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1151,16 +1148,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1168,16 +1165,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1185,16 +1182,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -1202,16 +1199,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1219,16 +1216,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -1236,16 +1233,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -1253,16 +1250,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="3">
         <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -1270,16 +1267,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -1287,16 +1284,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -1304,16 +1301,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1321,16 +1318,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="3">
         <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -1338,16 +1335,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="3">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -1355,16 +1352,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3">
         <v>3</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -1372,16 +1369,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -1389,16 +1386,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -1406,13 +1403,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="3">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F38" s="3"/>
     </row>
@@ -1428,7 +1425,7 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -1438,14 +1435,20 @@
       <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>5</v>
+      <c r="D40" s="3">
+        <v>3</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>15</v>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <f>SUM(D3:D41)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -1466,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D20" sqref="B2:F88"/>
     </sheetView>
   </sheetViews>
@@ -1510,10 +1513,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -1521,16 +1524,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1538,16 +1541,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -1555,16 +1558,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1572,16 +1575,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1589,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
@@ -1598,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1606,7 +1609,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
@@ -1615,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1623,7 +1626,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -1632,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -1640,7 +1643,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
@@ -1649,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1657,7 +1660,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -1666,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1674,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -1683,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -1691,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -1700,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1708,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -1717,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -1725,7 +1728,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -1734,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1742,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -1751,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1759,7 +1762,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
@@ -1768,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1776,7 +1779,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -1785,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1793,7 +1796,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -1802,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1810,7 +1813,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
@@ -1819,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1827,7 +1830,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
@@ -1836,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1844,7 +1847,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
@@ -1853,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1861,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="3">
         <v>2</v>
@@ -1870,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1878,7 +1881,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -1887,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -1895,7 +1898,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -1904,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1912,7 +1915,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="3">
         <v>2</v>
@@ -1921,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -1929,7 +1932,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
@@ -1938,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -1946,7 +1949,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
@@ -1955,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -1963,7 +1966,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
@@ -1972,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -1980,7 +1983,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="3">
         <v>2</v>
@@ -1989,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -1997,7 +2000,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
@@ -2006,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -2014,7 +2017,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -2023,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -2031,7 +2034,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
@@ -2040,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -2048,7 +2051,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
@@ -2057,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -2065,7 +2068,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
@@ -2074,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -2082,7 +2085,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="3">
         <v>2</v>
@@ -2091,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -2099,7 +2102,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="3">
         <v>2</v>
@@ -2108,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -2116,7 +2119,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
@@ -2125,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -2133,7 +2136,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="3">
         <v>2</v>
@@ -2142,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -2150,7 +2153,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
@@ -2159,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -2167,7 +2170,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" s="3">
         <v>2</v>
@@ -2176,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -2184,7 +2187,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="3">
         <v>2</v>
@@ -2193,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -2201,7 +2204,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="3">
         <v>2</v>
@@ -2210,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -2218,7 +2221,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
@@ -2227,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -2235,7 +2238,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -2244,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -2252,7 +2255,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="3">
         <v>2</v>
@@ -2261,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -2269,7 +2272,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="3">
         <v>2</v>
@@ -2278,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -2286,7 +2289,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
@@ -2295,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -2303,7 +2306,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="3">
         <v>2</v>
@@ -2312,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -2320,7 +2323,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="3">
         <v>2</v>
@@ -2329,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -2337,7 +2340,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" s="3">
         <v>2</v>
@@ -2346,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -2354,7 +2357,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
@@ -2363,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -2371,7 +2374,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
@@ -2380,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -2388,7 +2391,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="3">
         <v>2</v>
@@ -2397,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -2405,7 +2408,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56" s="3">
         <v>2</v>
@@ -2414,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -2422,7 +2425,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
@@ -2431,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -2439,7 +2442,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D58" s="3">
         <v>2</v>
@@ -2448,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -2456,7 +2459,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -2465,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -2473,7 +2476,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60" s="3">
         <v>2</v>
@@ -2482,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -2490,7 +2493,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
@@ -2499,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -2507,7 +2510,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" s="3">
         <v>2</v>
@@ -2516,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -2524,7 +2527,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D63" s="3">
         <v>2</v>
@@ -2533,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -2541,7 +2544,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D64" s="3">
         <v>2</v>
@@ -2550,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -2558,7 +2561,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" s="3">
         <v>2</v>
@@ -2567,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -2575,7 +2578,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D66" s="3">
         <v>2</v>
@@ -2584,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -2592,7 +2595,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D67" s="3">
         <v>2</v>
@@ -2601,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -2609,7 +2612,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" s="3">
         <v>2</v>
@@ -2618,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -2626,7 +2629,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69" s="3">
         <v>2</v>
@@ -2635,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -2643,7 +2646,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" s="3">
         <v>2</v>
@@ -2652,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
@@ -2660,7 +2663,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D71" s="3">
         <v>2</v>
@@ -2669,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -2677,7 +2680,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
@@ -2686,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -2694,7 +2697,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
@@ -2703,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -2711,7 +2714,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="3">
         <v>2</v>
@@ -2720,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -2728,7 +2731,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="3">
         <v>2</v>
@@ -2737,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
@@ -2745,7 +2748,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D76" s="3">
         <v>2</v>
@@ -2754,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -2762,7 +2765,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D77" s="3">
         <v>2</v>
@@ -2771,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -2779,7 +2782,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D78" s="3">
         <v>2</v>
@@ -2788,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -2796,7 +2799,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D79" s="3">
         <v>2</v>
@@ -2805,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
@@ -2813,7 +2816,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D80" s="3">
         <v>2</v>
@@ -2822,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
@@ -2830,7 +2833,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D81" s="3">
         <v>2</v>
@@ -2839,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
@@ -2847,7 +2850,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D82" s="3">
         <v>2</v>
@@ -2856,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
@@ -2864,7 +2867,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D83" s="3">
         <v>2</v>
@@ -2873,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
@@ -2881,7 +2884,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D84" s="3">
         <v>2</v>
@@ -2890,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
@@ -2898,7 +2901,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
@@ -2907,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
@@ -2918,10 +2921,10 @@
         <v>11</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F86" s="3"/>
     </row>
@@ -2947,10 +2950,10 @@
         <v>5</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/dataformats_14030220.xlsx
+++ b/dataformats_14030220.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\nad\Radiant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omid\Tester_ASK\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8DD8FE78-95E5-4188-B3F0-7B73B97F9D2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="from UI" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="uplink" sheetId="3" r:id="rId3"/>
     <sheet name="downlink" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -435,7 +434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -770,11 +769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
@@ -2962,7 +2961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2976,7 +2975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
